--- a/响应式编程在服务端的应用.xlsx
+++ b/响应式编程在服务端的应用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7016BBA5-2EE7-42AC-AB45-88BD61B85FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99540DC7-D43F-4653-B081-4E274A1E39EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>观察者模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,29 @@
   <si>
     <t>关联行为场景，建立一套触发机制</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005年，Erik Meijer和他的云可编程团队在实验适合构建大规模异步数据密集型互联网服务架构的编程模型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过几年的实验，Rx库的第一个版本诞生于2007年夏天。此后，Erik Meijer及其团队又花了两年时间专门讨论了该库的不同方面，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括多线程和协同性重调度。Rx.NET的第一个公开版本于2009年11月18日发布。不久之后，微软将该库移植到不同的语言中，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如JavaScript、C++、Ruby和Objective-C，以及Windows Phone平台。随着Rx开始普及，微软在2012年秋季开源了Rx.NET。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在某个时间点，Rx的想法传播到微软之外，Paul Betts与GitHub公司的Justin Spahr-Summers在2012年为Objective-C实现并发布了ReactiveCocoa。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与此同时，Netflix的Ben Christensen将Rx.NET移植到Java平台，并于2013年初在GitHub上开源了RxJava库。</t>
   </si>
 </sst>
 </file>
@@ -615,15 +638,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>